--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Rln1-Rxfp2.xlsx
@@ -528,34 +528,34 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5349114001153999</v>
+        <v>0.9914139999999999</v>
       </c>
       <c r="H2">
-        <v>0.5349114001153999</v>
+        <v>2.974242</v>
       </c>
       <c r="I2">
-        <v>0.4799449231454656</v>
+        <v>0.5837683597777463</v>
       </c>
       <c r="J2">
-        <v>0.4799449231454656</v>
+        <v>0.5837683597777463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.476553458965258</v>
+        <v>0.5698856666666666</v>
       </c>
       <c r="N2">
-        <v>0.476553458965258</v>
+        <v>1.709657</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.254913877964943</v>
+        <v>0.5649926283326666</v>
       </c>
       <c r="R2">
-        <v>0.254913877964943</v>
+        <v>5.084933654994</v>
       </c>
       <c r="S2">
-        <v>0.4799449231454656</v>
+        <v>0.5837683597777463</v>
       </c>
       <c r="T2">
-        <v>0.4799449231454656</v>
+        <v>0.5837683597777463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.48595365008141</v>
+        <v>0.5478883333333334</v>
       </c>
       <c r="H3">
-        <v>0.48595365008141</v>
+        <v>1.643665</v>
       </c>
       <c r="I3">
-        <v>0.4360179782862439</v>
+        <v>0.3226098014465836</v>
       </c>
       <c r="J3">
-        <v>0.4360179782862439</v>
+        <v>0.3226098014465836</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.476553458965258</v>
+        <v>0.5698856666666666</v>
       </c>
       <c r="N3">
-        <v>0.476553458965258</v>
+        <v>1.709657</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.2315828928430886</v>
+        <v>0.3122337081005556</v>
       </c>
       <c r="R3">
-        <v>0.2315828928430886</v>
+        <v>2.810103372905</v>
       </c>
       <c r="S3">
-        <v>0.4360179782862439</v>
+        <v>0.3226098014465836</v>
       </c>
       <c r="T3">
-        <v>0.4360179782862439</v>
+        <v>0.3226098014465836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0936615846714053</v>
+        <v>0.158998</v>
       </c>
       <c r="H4">
-        <v>0.0936615846714053</v>
+        <v>0.476994</v>
       </c>
       <c r="I4">
-        <v>0.08403709856829047</v>
+        <v>0.09362183877567003</v>
       </c>
       <c r="J4">
-        <v>0.08403709856829047</v>
+        <v>0.09362183877567003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.476553458965258</v>
+        <v>0.5698856666666666</v>
       </c>
       <c r="N4">
-        <v>0.476553458965258</v>
+        <v>1.709657</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04463475214732558</v>
+        <v>0.09061068122866665</v>
       </c>
       <c r="R4">
-        <v>0.04463475214732558</v>
+        <v>0.815496131058</v>
       </c>
       <c r="S4">
-        <v>0.08403709856829047</v>
+        <v>0.09362183877567003</v>
       </c>
       <c r="T4">
-        <v>0.08403709856829047</v>
+        <v>0.09362183877567003</v>
       </c>
     </row>
   </sheetData>
